--- a/src/data/profiles/xlsx/bluff/profile 22-4 graph.xlsx
+++ b/src/data/profiles/xlsx/bluff/profile 22-4 graph.xlsx
@@ -5604,11 +5604,11 @@
           </c:yVal>
           <c:smooth val="0"/>
         </c:ser>
-        <c:axId val="17843915"/>
-        <c:axId val="17211404"/>
+        <c:axId val="91206994"/>
+        <c:axId val="11559734"/>
       </c:scatterChart>
       <c:valAx>
-        <c:axId val="17843915"/>
+        <c:axId val="91206994"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5643,12 +5643,12 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="17211404"/>
+        <c:crossAx val="11559734"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
       <c:valAx>
-        <c:axId val="17211404"/>
+        <c:axId val="11559734"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -5692,7 +5692,7 @@
             </a:pPr>
           </a:p>
         </c:txPr>
-        <c:crossAx val="17843915"/>
+        <c:crossAx val="91206994"/>
         <c:crossesAt val="0"/>
         <c:crossBetween val="midCat"/>
       </c:valAx>
